--- a/report/Test case/Store/Test_Case_Truong.xlsx
+++ b/report/Test case/Store/Test_Case_Truong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\truon\Desktop\Selling-book\report\Test case\Store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057322B5-08A3-42BC-8FEF-9A0E5C361860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2AA495-FC07-4DC1-B6EA-B657868B942A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="72" windowWidth="20364" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>TC ID</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>Thủ kho -&gt;"Loại sách"</t>
+  </si>
+  <si>
+    <t>Click item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nothing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long click item </t>
+  </si>
+  <si>
+    <t>remove item</t>
   </si>
 </sst>
 </file>
@@ -310,6 +322,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -319,20 +337,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -653,17 +665,17 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1">
       <c r="A3" s="2">
@@ -819,29 +831,29 @@
       <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -857,16 +869,16 @@
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -885,7 +897,7 @@
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -910,10 +922,10 @@
       <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -932,25 +944,31 @@
       <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
@@ -964,13 +982,21 @@
       <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -987,15 +1013,15 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2"/>
@@ -1097,10 +1123,11 @@
       <c r="I27" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A18:I18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
